--- a/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="890">
   <si>
     <t>Serie</t>
   </si>
@@ -2681,6 +2681,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G883"/>
+  <dimension ref="A1:G884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18589,6 +18592,29 @@
         <v>15619</v>
       </c>
     </row>
+    <row r="884" spans="1:7">
+      <c r="A884" t="s">
+        <v>889</v>
+      </c>
+      <c r="B884">
+        <v>34798.8</v>
+      </c>
+      <c r="C884">
+        <v>14639.1</v>
+      </c>
+      <c r="D884">
+        <v>28118.8</v>
+      </c>
+      <c r="E884">
+        <v>7047.6</v>
+      </c>
+      <c r="F884">
+        <v>6517.7</v>
+      </c>
+      <c r="G884">
+        <v>15573.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="891">
   <si>
     <t>Serie</t>
   </si>
@@ -2684,6 +2684,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -3041,7 +3044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G884"/>
+  <dimension ref="A1:G885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18615,6 +18618,29 @@
         <v>15573.5</v>
       </c>
     </row>
+    <row r="885" spans="1:7">
+      <c r="A885" t="s">
+        <v>890</v>
+      </c>
+      <c r="B885">
+        <v>35244</v>
+      </c>
+      <c r="C885">
+        <v>14856.5</v>
+      </c>
+      <c r="D885">
+        <v>27692.7</v>
+      </c>
+      <c r="E885">
+        <v>7138.5</v>
+      </c>
+      <c r="F885">
+        <v>6746.1</v>
+      </c>
+      <c r="G885">
+        <v>15816.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="892">
   <si>
     <t>Serie</t>
   </si>
@@ -2687,6 +2687,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +3047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G885"/>
+  <dimension ref="A1:G886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18641,6 +18644,29 @@
         <v>15816.1</v>
       </c>
     </row>
+    <row r="886" spans="1:7">
+      <c r="A886" t="s">
+        <v>891</v>
+      </c>
+      <c r="B886">
+        <v>34688.4</v>
+      </c>
+      <c r="C886">
+        <v>15023.5</v>
+      </c>
+      <c r="D886">
+        <v>29893.6</v>
+      </c>
+      <c r="E886">
+        <v>7065.1</v>
+      </c>
+      <c r="F886">
+        <v>6637.7</v>
+      </c>
+      <c r="G886">
+        <v>15584.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de bolsas externas 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="893">
   <si>
     <t>Serie</t>
   </si>
@@ -2690,6 +2690,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G886"/>
+  <dimension ref="A1:G887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18667,6 +18670,29 @@
         <v>15584.5</v>
       </c>
     </row>
+    <row r="887" spans="1:7">
+      <c r="A887" t="s">
+        <v>892</v>
+      </c>
+      <c r="B887">
+        <v>35055.5</v>
+      </c>
+      <c r="C887">
+        <v>14879</v>
+      </c>
+      <c r="D887">
+        <v>28586.2</v>
+      </c>
+      <c r="E887">
+        <v>7163.1</v>
+      </c>
+      <c r="F887">
+        <v>6651.9</v>
+      </c>
+      <c r="G887">
+        <v>15401.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
